--- a/docs/requirement/New Microsoft Excel Worksheet.xlsx
+++ b/docs/requirement/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github project\project-dummy\docs\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761904E6-ADB2-427C-9DAD-A585BA23BE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4ABB4A-0BF7-43F6-AA0A-B39579C9C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t xml:space="preserve">five </t>
+  </si>
+  <si>
+    <t>four</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +401,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
